--- a/outcomes/average variance.xlsx
+++ b/outcomes/average variance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -802,10 +805,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$BY$1</c:f>
+              <c:f>Sheet1!$A$1:$CB$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>3.6649</c:v>
                 </c:pt>
@@ -1073,10 +1076,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$BY$2</c:f>
+              <c:f>Sheet1!$A$2:$CB$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>3.62681</c:v>
                 </c:pt>
@@ -1344,10 +1347,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$BY$3</c:f>
+              <c:f>Sheet1!$A$3:$CB$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2.26868</c:v>
                 </c:pt>
@@ -1615,10 +1618,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$BY$4</c:f>
+              <c:f>Sheet1!$A$4:$CB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1.82738</c:v>
                 </c:pt>
@@ -1849,6 +1852,277 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.516791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"hidden markov model"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hidden markov model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$CB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>2.47488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.76695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.892783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.754498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.639575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.561582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.523981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.483944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.457616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.452999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.428919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.436259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.412364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.395249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.402849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.395903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.404527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.401189</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.395207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.387251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.397735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.391675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.405501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.401698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.397692</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.412596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.424227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40856</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.408081</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.400688</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.391808</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.389447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39681</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.398892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.387733</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.391314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.384764</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.395245</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.400607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.395462</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.384985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40426</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.414038</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.436876</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.437989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.428038</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.403183</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.392086</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.415099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.426509</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.423994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.383408</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.402943</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.371168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.360113</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.390159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.396499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.416849</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.395125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.406949</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.396234</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.410529</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.411998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.364855</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.451424</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.408122</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.539662</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.603569</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.599961</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.55154</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.518813</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.428742</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.637472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,15 +2870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>102235</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2612,7 +2886,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="711200"/>
+        <a:off x="26670" y="1174750"/>
         <a:ext cx="7619365" cy="4108450"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2876,13 +3150,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:77">
       <c r="A1" s="1">
@@ -3814,6 +4088,239 @@
       </c>
       <c r="BY4" s="1">
         <v>0.516791</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:77">
+      <c r="A5" s="2">
+        <v>2.47488</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.76695</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.33747</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.00792</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.892783</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.754498</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.639575</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.561582</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.523981</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.483944</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.457616</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.452999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.428919</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.436259</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.412364</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.395249</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.402849</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.395903</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.404527</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.401189</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.395207</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.387251</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.397735</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.391675</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.405501</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.401698</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.397692</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.412596</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.424227</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.40856</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.408081</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.400688</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.391808</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.389447</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.39681</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.398892</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.387733</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.391314</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.384764</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.40025</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.395245</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.400607</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.395462</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0.384985</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0.40426</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0.414038</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0.436876</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0.437989</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0.428038</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0.403183</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>0.392086</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0.415099</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>0.426509</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>0.423994</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0.43994</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0.383408</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>0.402943</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0.371168</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>0.360113</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>0.390159</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>0.396499</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>0.416849</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>0.395125</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>0.406949</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>0.396234</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>0.410529</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>0.411998</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>0.364855</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>0.451424</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>0.408122</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>0.539662</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>0.603569</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>0.599961</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>0.55154</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>0.518813</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>0.428742</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>0.637472</v>
       </c>
     </row>
   </sheetData>
